--- a/biology/Médecine/Leonard_S._Goldberg/Leonard_S._Goldberg.xlsx
+++ b/biology/Médecine/Leonard_S._Goldberg/Leonard_S._Goldberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonard S. Goldberg, né en 1936 en Caroline du Sud, aux États-Unis, est un médecin et un écrivain américain, auteur de thriller médical.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est médecin à Los Angeles et professeur à la faculté de médecine. 
-En 1992, s'inspirant de son expérience professionnelle, il publie son premier roman, Deadly Medicine. Il y crée le personnage du docteur Joanna Blalock, médecin légiste au Memorial Hospital de Los Angeles. On retrouve cette héroïne dans huit autres romans. Selon Claude Mesplède, « tous les ouvrages de cette série sont bien agencés et fort divertissants »[1].
+En 1992, s'inspirant de son expérience professionnelle, il publie son premier roman, Deadly Medicine. Il y crée le personnage du docteur Joanna Blalock, médecin légiste au Memorial Hospital de Los Angeles. On retrouve cette héroïne dans huit autres romans. Selon Claude Mesplède, « tous les ouvrages de cette série sont bien agencés et fort divertissants ».
 En 2012, avec Patient One, il commence une nouvelle série toujours située dans le milieu médical.
 </t>
         </is>
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Joanna Blalock
-Deadly Medicine (1992)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Joanna Blalock</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deadly Medicine (1992)
 Deadly Practice (1994)
 Deadly Care (1996) Publié en français sous le titre Soins mortels, Paris, Payot &amp; Rivages, coll. « Payot suspense » (1998)  (ISBN 2-228-89145-2) ; réédition Paris, LGF, coll. « Le Livre de poche » no 17090 (1999)  (ISBN 2-253-17090-9)
 Deadly Harvest (1997) Publié en français sous le titre Moisson mortelle, Payot &amp; Rivages, coll. « Payot suspense » (1999)  (ISBN 2-228-89218-1) ; réédition LGF, coll. « Le Livre de poche » no 17162 (2001)  (ISBN 2-253-17162-X)
@@ -556,20 +578,134 @@
 Lethal Measures (2000) Publié en français sous le titre Folie meurtrière, Payot &amp; Rivages, coll. « Payot suspense » (2001)  (ISBN 2-228-89379-X) ; réédition LGF, coll. « Le Livre de poche » no 17260 (2002)  (ISBN 2-253-17260-X)
 Fatal Care (2001) Publié en français sous le titre Mortelle Thérapie, Payot &amp; Rivages, coll. « Payot suspense » (2003)  (ISBN 2-228-89787-6) ; réédition LGF, coll. « Le Livre de poche » no 37020 (2005)  (ISBN 2-253-09045-X)
 Brainwaves (2002) Publié en français sous le titre Crime de mémoire, Paris, Payot &amp; Rivages, coll. « Payot suspense » (2004)  (ISBN 2-228-89916-X), réédition Paris, LGF, coll. « Le Livre de poche » no 37277 (2008)  (ISBN 978-2-253-11621-9)
-Fever Cell (2003)
-Série David Ballineau
-Patient One (2012)
-Plague Ship (2013)
-Série Joanna Blaock
-The Daughter of Sherlock Holmes (2017)
+Fever Cell (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série David Ballineau</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Patient One (2012)
+Plague Ship (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Joanna Blaock</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Daughter of Sherlock Holmes (2017)
 A Study in Treason (2018)
 The Disappearance of Alistair Ainsworth (2019)
 The Art of Deception (2020)
 The Abduction of Pretty Penny (2021)
 The Blue Diamond (2022)
-The Wayward Prince (2023)
-Autres romans
-Transplant (1980)
+The Wayward Prince (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leonard_S._Goldberg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Transplant (1980)
 The Cure (1982)</t>
         </is>
       </c>
